--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B5DEF8-B02B-004D-A8B5-B15A29DAFB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E231C-0DC9-AA49-81E7-ADEB01048FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,232 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>1) Add a table for acronyms</t>
+  </si>
+  <si>
+    <t>4) Chapter 3: Elaborate more in the meaning of the normalized forward progress i.e. explain how this metric was measured in your experiments, in particular for the results corresponding to Figure 3.3.</t>
+  </si>
+  <si>
+    <t>2) Chapter 2: Make sure you have permission to include the figures taken from other references</t>
+  </si>
+  <si>
+    <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible Include a method section to show how you obtained the data and a picture of the experiment.</t>
+  </si>
+  <si>
+    <t>5) Conclusions: Explain how you have addressed the research questions in the thesis and highlight the impact of this work on the field.</t>
+  </si>
+  <si>
+    <t>Notes for page 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none of applications → no applications </t>
+  </si>
+  <si>
+    <t>Notes for page 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is “nail-sized”? </t>
+  </si>
+  <si>
+    <t>Notes for page 43</t>
+  </si>
+  <si>
+    <t>the each → each</t>
+  </si>
+  <si>
+    <t>system copy → system copies the</t>
+  </si>
+  <si>
+    <t>system restore its state → the system restores its state… and hence, continues its…</t>
+  </si>
+  <si>
+    <t>of placing checkpoints → for placing checkpoints</t>
+  </si>
+  <si>
+    <t>"It is a concern in Mementos that how" Rephrase. Perhaps something like "A concern in Mementos is how to set the voltage threshold so that snapshots can be saved successfully while avoiding too many redundant snapshots."</t>
+  </si>
+  <si>
+    <t>Notes for page 45</t>
+  </si>
+  <si>
+    <t>Notes for page 84</t>
+  </si>
+  <si>
+    <t>Notes for page 85</t>
+  </si>
+  <si>
+    <t>Notes for page 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profiles the maximum voltage drop—this seems like it might be subject to noise in the measurement of supply voltage. What is the noise in the reading (e.g., supply voltage varies with temperature) and how does Optic cope with this noise? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is this related work not presented in chapter 2? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">proacitive → proactive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for natural log, use log; for exp, use exp </t>
+  </si>
+  <si>
+    <t>can 5.1 be simplified? i.e., exp(log(a).b) = a.exp(b)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eq 5.1 should be expressed in A rather than μA and update the constatns to be consistent with that. I am sure that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> also should be in A?</t>
+    </r>
+  </si>
+  <si>
+    <t>majorly is awkward—try "mostly"</t>
+  </si>
+  <si>
+    <t>Notes for page 114</t>
+  </si>
+  <si>
+    <t>what is TRX in the figure?</t>
+  </si>
+  <si>
+    <t>Notes for page 115</t>
+  </si>
+  <si>
+    <t>please end the work with a paragraph or two on the impact of the work</t>
+  </si>
+  <si>
+    <t>Notes for page 123</t>
+  </si>
+  <si>
+    <t>reference 65 and 66 incomplete. Carefully check all references, please</t>
+  </si>
+  <si>
+    <t>6) Please also clarify/correct the issues listed below:
+(referred by the PDF page number in the submitted thesis)</t>
+  </si>
+  <si>
+    <r>
+      <t>See below:
+(page numbered in the revised thesis as &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDF page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; / &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Figure 1.2</t>
+  </si>
+  <si>
+    <t>Section 1.2</t>
+  </si>
+  <si>
+    <t>"as well as their works" not sure what is meant here. Do you mean "as well as the associated research works"? Or perhaps "as well as how they work"?</t>
+  </si>
+  <si>
+    <t>Section 2.4</t>
+  </si>
+  <si>
+    <t>Section 2.4.1</t>
+  </si>
+  <si>
+    <t>(Review the whole thesis again )</t>
+  </si>
+  <si>
+    <t>I believe this description is misleading. The "maximum voltage drop" was intended to decribe the voltage drop in the case that no energy is gained during the operation. This has been rephrased in Section 5.</t>
+  </si>
+  <si>
+    <t>Corrected in Section 5.1</t>
+  </si>
+  <si>
+    <t>Updated in Equation 5.1</t>
+  </si>
+  <si>
+    <t>Section 5.2.2.1</t>
+  </si>
+  <si>
+    <t>Section 6.2 and refered in Acronyms</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,16 +266,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -60,12 +316,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +881,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A3EC1-90B9-564D-8415-548D56B5B189}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E231C-0DC9-AA49-81E7-ADEB01048FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399E20D-71A1-D64B-84BE-70CD880D65E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="26580" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Comments</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>2) Chapter 2: Make sure you have permission to include the figures taken from other references</t>
-  </si>
-  <si>
-    <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible Include a method section to show how you obtained the data and a picture of the experiment.</t>
   </si>
   <si>
     <t>5) Conclusions: Explain how you have addressed the research questions in the thesis and highlight the impact of this work on the field.</t>
@@ -252,6 +249,18 @@
   </si>
   <si>
     <t>Section 6.2 and refered in Acronyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain permission for any image reproductions such as fig 2.5 This is usually just a matter of applying to the publisher. See https://www.acm.org/publications/policies/copyright-policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers. </t>
+  </si>
+  <si>
+    <t>Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers (same in comment 2).</t>
+  </si>
+  <si>
+    <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
   </si>
 </sst>
 </file>
@@ -308,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -501,11 +510,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -531,6 +553,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -558,14 +589,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,7 +913,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,247 +924,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
+      <c r="B17" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399E20D-71A1-D64B-84BE-70CD880D65E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6836D-538B-ED46-876A-4C07FAD05AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26580" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="10180" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Comments</t>
   </si>
@@ -262,12 +262,18 @@
   <si>
     <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
   </si>
+  <si>
+    <t>To explain this more in Section 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a section. Make a figure of procedures. Include a photo of the setup. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +308,13 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -527,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -562,6 +575,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -589,12 +608,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A3EC1-90B9-564D-8415-548D56B5B189}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,61 +942,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="24" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1006,7 +1028,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1017,7 +1039,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +1048,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1057,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1066,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1075,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1062,10 +1084,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1084,7 +1106,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1093,7 +1115,7 @@
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1102,7 +1124,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1113,7 +1135,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1144,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1131,7 +1153,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6836D-538B-ED46-876A-4C07FAD05AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89BE57-478A-A14D-8779-415C425EAD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
@@ -266,14 +266,14 @@
     <t>To explain this more in Section 3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Add a section. Make a figure of procedures. Include a photo of the setup. </t>
+    <t>Add Section 3.2 and Figure 3.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +315,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -611,8 +616,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C89BE57-478A-A14D-8779-415C425EAD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA6036-445B-2144-8D68-3A54445E4382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Comments</t>
   </si>
@@ -263,10 +263,16 @@
     <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
   </si>
   <si>
-    <t>To explain this more in Section 3.1</t>
-  </si>
-  <si>
     <t>Add Section 3.2 and Figure 3.3</t>
+  </si>
+  <si>
+    <t>Done in Chapter 3 intro and experimental setup</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Add Section 6.1 and relate research questions to the corresponding answers</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -541,11 +547,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -574,15 +593,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,11 +627,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A3EC1-90B9-564D-8415-548D56B5B189}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,65 +967,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1033,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1044,7 +1068,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1053,7 +1077,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1086,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1095,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1104,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1089,10 +1113,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1111,7 +1135,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1120,7 +1144,7 @@
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1129,18 +1153,18 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1149,7 +1173,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1182,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1208,7 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -1193,7 +1217,7 @@
       <c r="B27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CA6036-445B-2144-8D68-3A54445E4382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34912F4F-6039-2A48-AF55-DECFF23E5701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="500" windowWidth="24620" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="11700" yWindow="500" windowWidth="27340" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Corrections</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>1) Add a table for acronyms</t>
   </si>
@@ -170,116 +164,139 @@
 (referred by the PDF page number in the submitted thesis)</t>
   </si>
   <si>
-    <r>
-      <t>See below:
-(page numbered in the revised thesis as &lt;</t>
-    </r>
+    <t>Figure 1.2</t>
+  </si>
+  <si>
+    <t>Section 1.2</t>
+  </si>
+  <si>
+    <t>"as well as their works" not sure what is meant here. Do you mean "as well as the associated research works"? Or perhaps "as well as how they work"?</t>
+  </si>
+  <si>
+    <t>Section 2.4</t>
+  </si>
+  <si>
+    <t>Section 2.4.1</t>
+  </si>
+  <si>
+    <t>Corrected in Section 5.1</t>
+  </si>
+  <si>
+    <t>Updated in Equation 5.1</t>
+  </si>
+  <si>
+    <t>Section 5.2.2.1</t>
+  </si>
+  <si>
+    <t>Section 6.2 and refered in Acronyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain permission for any image reproductions such as fig 2.5 This is usually just a matter of applying to the publisher. See https://www.acm.org/publications/policies/copyright-policy </t>
+  </si>
+  <si>
+    <t>Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers (same in comment 2).</t>
+  </si>
+  <si>
+    <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
+  </si>
+  <si>
+    <t>Done in Chapter 3 intro and experimental setup</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Add Section 6.1 and relate research questions to the corresponding answers</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>This has been corrected and no other occurrence has been found.</t>
+  </si>
+  <si>
+    <t>I believe this description is misleading. The "maximum voltage drop" was intended to decribe the voltage drop in the case that no energy is gained during the operation, while other factors that increase the voltage drop are meant to be excluded in the term here. This has been rephrased in Section 5.</t>
+  </si>
+  <si>
+    <t>Add Section 3.2 and Figure 3.3. 
+I could not find the picture of the experiment in Chapter 3 as it was old and lost. However, a picture of the experiment in Chapter 5 was found, and it is similar to the setup in Chatper 3. I hope this can at least demonstrate what it looks like.</t>
+  </si>
+  <si>
+    <t>See below</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
-        <sz val="12"/>
+        <b/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF page</t>
+      <t>Comments</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; / &lt;</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(page numbered in the PDF pages of the submitted thesis)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>text page</t>
+      <t>Corrections</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;)</t>
+      <t xml:space="preserve">
+</t>
     </r>
-  </si>
-  <si>
-    <t>Figure 1.2</t>
-  </si>
-  <si>
-    <t>Section 1.2</t>
-  </si>
-  <si>
-    <t>"as well as their works" not sure what is meant here. Do you mean "as well as the associated research works"? Or perhaps "as well as how they work"?</t>
-  </si>
-  <si>
-    <t>Section 2.4</t>
-  </si>
-  <si>
-    <t>Section 2.4.1</t>
-  </si>
-  <si>
-    <t>(Review the whole thesis again )</t>
-  </si>
-  <si>
-    <t>I believe this description is misleading. The "maximum voltage drop" was intended to decribe the voltage drop in the case that no energy is gained during the operation. This has been rephrased in Section 5.</t>
-  </si>
-  <si>
-    <t>Corrected in Section 5.1</t>
-  </si>
-  <si>
-    <t>Updated in Equation 5.1</t>
-  </si>
-  <si>
-    <t>Section 5.2.2.1</t>
-  </si>
-  <si>
-    <t>Section 6.2 and refered in Acronyms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain permission for any image reproductions such as fig 2.5 This is usually just a matter of applying to the publisher. See https://www.acm.org/publications/policies/copyright-policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers. </t>
-  </si>
-  <si>
-    <t>Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers (same in comment 2).</t>
-  </si>
-  <si>
-    <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
-  </si>
-  <si>
-    <t>Add Section 3.2 and Figure 3.3</t>
-  </si>
-  <si>
-    <t>Done in Chapter 3 intro and experimental setup</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Add Section 6.1 and relate research questions to the corresponding answers</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(page numbered in the revised thesis as &lt;PDF page&gt; / &lt;content page&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">All permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the guidance of publishers. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +343,19 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -341,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -515,21 +545,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -564,56 +579,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,17 +608,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,285 +961,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A3EC1-90B9-564D-8415-548D56B5B189}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="10">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34912F4F-6039-2A48-AF55-DECFF23E5701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1512EFB-DED7-C44D-8EDF-36F92F322D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11700" yWindow="500" windowWidth="27340" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>1) Add a table for acronyms</t>
   </si>
@@ -289,7 +289,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">All permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the guidance of publishers. </t>
+    <t>Added (page xvii / 17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All permissions have been obtain. The copyrights of figures are stated in Chapter 2, Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the guidance of publishers. </t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +993,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,7 +1002,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1512EFB-DED7-C44D-8EDF-36F92F322D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA4863-B1AA-CA44-A24D-DF33E26AC006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="500" windowWidth="27340" windowHeight="28300" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="-560" yWindow="500" windowWidth="24780" windowHeight="17500" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>1) Add a table for acronyms</t>
   </si>
@@ -164,62 +164,13 @@
 (referred by the PDF page number in the submitted thesis)</t>
   </si>
   <si>
-    <t>Figure 1.2</t>
-  </si>
-  <si>
-    <t>Section 1.2</t>
-  </si>
-  <si>
     <t>"as well as their works" not sure what is meant here. Do you mean "as well as the associated research works"? Or perhaps "as well as how they work"?</t>
   </si>
   <si>
-    <t>Section 2.4</t>
-  </si>
-  <si>
-    <t>Section 2.4.1</t>
-  </si>
-  <si>
-    <t>Corrected in Section 5.1</t>
-  </si>
-  <si>
-    <t>Updated in Equation 5.1</t>
-  </si>
-  <si>
-    <t>Section 5.2.2.1</t>
-  </si>
-  <si>
-    <t>Section 6.2 and refered in Acronyms</t>
-  </si>
-  <si>
     <t xml:space="preserve">obtain permission for any image reproductions such as fig 2.5 This is usually just a matter of applying to the publisher. See https://www.acm.org/publications/policies/copyright-policy </t>
   </si>
   <si>
-    <t>Permissions have been obtain. The copyrights of figures are stated in Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the rules of publishers (same in comment 2).</t>
-  </si>
-  <si>
     <t>3) Chapter 3: Add a section to describe the experimental methodology in detail, including figures of the setup if possible. Include a method section to show how you obtained the data and a picture of the experiment.</t>
-  </si>
-  <si>
-    <t>Done in Chapter 3 intro and experimental setup</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Add Section 6.1 and relate research questions to the corresponding answers</t>
-  </si>
-  <si>
-    <t>Todo</t>
-  </si>
-  <si>
-    <t>This has been corrected and no other occurrence has been found.</t>
-  </si>
-  <si>
-    <t>I believe this description is misleading. The "maximum voltage drop" was intended to decribe the voltage drop in the case that no energy is gained during the operation, while other factors that increase the voltage drop are meant to be excluded in the term here. This has been rephrased in Section 5.</t>
-  </si>
-  <si>
-    <t>Add Section 3.2 and Figure 3.3. 
-I could not find the picture of the experiment in Chapter 3 as it was old and lost. However, a picture of the experiment in Chapter 5 was found, and it is similar to the setup in Chatper 3. I hope this can at least demonstrate what it looks like.</t>
   </si>
   <si>
     <t>See below</t>
@@ -289,17 +240,69 @@
     </r>
   </si>
   <si>
-    <t>Added (page xvii / 17)</t>
-  </si>
-  <si>
     <t xml:space="preserve">All permissions have been obtain. The copyrights of figures are stated in Chapter 2, Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the guidance of publishers. </t>
+  </si>
+  <si>
+    <t>Added (page 17 / xvii)</t>
+  </si>
+  <si>
+    <t>Added Section 3.2 and Figure 3.3 (page 62-65 / 44-47) to explain the experimental methodology. 
+I could not find the picture of the experiment in Chapter 3 as it was old and lost. However, a picture of the experiment in Chapter 5 was found and attached in Figure 5.9 (page 105 / 87). It is similar to the setup in Chatper 3. I hope this can help depict what it looks like.</t>
+  </si>
+  <si>
+    <t>Updated explanation in Chapter 3 Introduction (page 58 / 40) and Section 3.4.1 Experimental Setup (page 69 / 51)</t>
+  </si>
+  <si>
+    <t>Corrected in Figure 1.2 (page 23 / 5)</t>
+  </si>
+  <si>
+    <t>Corrected in Section 1.2 (page 24 / 6)</t>
+  </si>
+  <si>
+    <t>Added Section 6.1 and research questions are related to the answers (page 115 / 97)</t>
+  </si>
+  <si>
+    <t>Corrected in Section 2.4 (page 43 / 25)</t>
+  </si>
+  <si>
+    <t>Corrected in Section 2.4.1.1 (page 43 / 25)</t>
+  </si>
+  <si>
+    <t>All permissions have been obtain. The copyrights of figures are stated in Chapter 2, Figure 2.1, 2.4, 2.5, 2.6, 2.7, 2.8, 2.9 following the guidance of publishers (same as comment 2).</t>
+  </si>
+  <si>
+    <t>I believe this description is misleading. The "maximum voltage drop" was intended to decribe the voltage drop in the case that no energy is gained during the operation, while other factors that increase the voltage drop are meant to be excluded in the term here. This has been rephrased in Section 5 (page 88 / 70).</t>
+  </si>
+  <si>
+    <t>Related work of Chapter 5 and Chapter 4 have been moved to Chapter 2 Section 2.4.4 and 2.4.5 (page 53 / 35).</t>
+  </si>
+  <si>
+    <t>Corrected in Section 2.4.4 (page 53 / 35)</t>
+  </si>
+  <si>
+    <t>This has been corrected in Equation 5.1 (page 92 / 74) and no other occurrence has been found.</t>
+  </si>
+  <si>
+    <t>Corrected in Equation 5.1 (page 92 / 74)</t>
+  </si>
+  <si>
+    <t>Corrected in Section 5.1.2.1 (page 93 / 75)</t>
+  </si>
+  <si>
+    <t>Added its fullname in Section 6.2 (page 101 / 119) and included in Acronyms</t>
+  </si>
+  <si>
+    <t>Added in Section 6.3 (page 101 /119)</t>
+  </si>
+  <si>
+    <t>Corrected. All references have been checked.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,13 +339,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
@@ -374,7 +370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -531,6 +527,21 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -617,28 +628,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,6 +656,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,11 +991,11 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,7 +1004,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,16 +1013,16 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1031,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1029,7 +1040,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,7 +1049,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1049,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1060,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1071,16 +1082,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1098,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1107,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,10 +1135,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -1138,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1149,7 +1160,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,45 +1169,45 @@
         <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>48</v>
+      <c r="C20" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1207,29 +1218,29 @@
         <v>26</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>47</v>
+      <c r="C26" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/files/correction list.xlsx
+++ b/files/correction list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezhan/work/mywriting/thesis/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA4863-B1AA-CA44-A24D-DF33E26AC006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B80EE-A938-F24D-89D8-E726F9779F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="500" windowWidth="24780" windowHeight="17500" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
+    <workbookView xWindow="2120" yWindow="700" windowWidth="25400" windowHeight="27240" xr2:uid="{191DB978-43CC-054F-9BCC-FB5D3B62670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>1) Add a table for acronyms</t>
   </si>
@@ -289,13 +289,16 @@
     <t>Corrected in Section 5.1.2.1 (page 93 / 75)</t>
   </si>
   <si>
-    <t>Added its fullname in Section 6.2 (page 101 / 119) and included in Acronyms</t>
-  </si>
-  <si>
-    <t>Added in Section 6.3 (page 101 /119)</t>
-  </si>
-  <si>
     <t>Corrected. All references have been checked.</t>
+  </si>
+  <si>
+    <t>Corrected in Equation 5.1 (page 92 / 74). The original equation is simplified -- natural log or exp is not needed now.</t>
+  </si>
+  <si>
+    <t>Added its fullname in Section 6.2 (page 119 / 101) and included in Acronyms</t>
+  </si>
+  <si>
+    <t>Added in Section 6.3 (page 119 / 101)</t>
   </si>
 </sst>
 </file>
@@ -604,10 +607,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,45 +662,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,8 +981,8 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,65 +993,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1059,7 +1062,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1070,74 +1073,74 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1148,65 +1151,65 @@
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>52</v>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1217,30 +1220,30 @@
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>54</v>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>55</v>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>56</v>
+      <c r="C26" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
